--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,3151 +448,3141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Блестящие трикотажные брюки палаццо</t>
+          <t>Баскетбольная форма Джеймс Лос Анджелис</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2926</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бриджи однотонные больших размеров</t>
+          <t>Баскетбольная форма Джордан 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Брюки 7 8 теплые с начесом на флисе</t>
+          <t>Баскетбольная форма Чикаго Булс</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1652</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Брюки 7 8 теплые с начесом на флисе</t>
+          <t>Баскетбольная форма взрослая</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1652</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Брюки ГЛИТЕРАТИ женские на резинке</t>
+          <t>Баскетбольная форма детская для мальчиков Bull  Jordan</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1170</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Брюки ажурные из гипюра прозрачные</t>
+          <t>Баскетбольная форма тренировочная Laker  Bryant</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1385</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Брюки бананы классические</t>
+          <t>Без начеса костюм из футера трикотажный</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2301</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Брюки бананы классические</t>
+          <t>Боксёрская форма Competition</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1957</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Брюки бананы классические офисные</t>
+          <t>Вельветовый костюм двойка</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2332</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Брюки бананы укороченные 7 8 на резинке</t>
+          <t>Велюровый костюм Деда Мороза с подкладом теплый</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1101</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Брюки бананы укороченные 7 8 на резинке</t>
+          <t>Горнолыжный костюм</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1101</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Брюки бананы школьные зауженные</t>
+          <t>Горнолыжный костюм</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1024</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Брюки блестящие с пайетками</t>
+          <t>Горнолыжный костюм зимний с капюшоном</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3114</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Брюки болоневые зимние на флисе</t>
+          <t>Горнолыжный костюм теплый</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2322</v>
+        <v>9707</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Брюки больших размеров на резинке</t>
+          <t>Демисезонный спортивный костюм 3в1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1998</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Брюки в клетку классические</t>
+          <t>Домашний костюм с брюками трикотажный</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3529</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Брюки в полоску</t>
+          <t>Домашний костюм с брюками трикотажный</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2436</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Брюки вельветовые</t>
+          <t>Домашний костюм с шортами</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1616</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Брюки вечерние палаццо с блестками</t>
+          <t>Зимний костюм мужской мембрана горнолыжный</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1967</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Брюки джоггеры Честер женские на резинке</t>
+          <t>Зимний костюмТайга</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1500</v>
+        <v>9901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Брюки джоггеры лапша микровельвет</t>
+          <t>Камуфляжный костюм горка</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2167</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Брюки джоггеры на резинке трикотажные</t>
+          <t>Камуфляжный костюм тактический горка</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1165</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Брюки джоггеры утепленные зимние с начесом</t>
+          <t>Карнавальный Костюм Деда Мороза Новый Год</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1878</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Брюки для беременных клеш шерстяные</t>
+          <t>Карнавальный Костюм Деда Мороза новый год</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2089</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Брюки для беременных офисные утепленные (мех)</t>
+          <t>Карнавальный костюм Дед Мороз</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1626</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Брюки домашние пижамные</t>
+          <t>Карнавальный костюм Деда Мороза</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>581</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Брюки домашние хлопок</t>
+          <t>Карнавальный костюм Деда Мороза</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>735</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Брюки домашние хлопок</t>
+          <t>Карнавальный костюм Деда Мороза</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>581</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Брюки женские</t>
+          <t>Карнавальный костюм Деда Мороза</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1488</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Брюки женские домашние хлопок на резинке большие размеры</t>
+          <t>Карнавальный костюм Деда Мороза бархатный узоры</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>797</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Брюки женские классические палацо</t>
+          <t>Карнавальный костюм деда мороза</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1809</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Брюки женские классические палаццо широкие</t>
+          <t>Карнавальный новогодний костюм Дед Мороз</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Брюки женские кожаные палаццо</t>
+          <t>Костюм</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1632</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Брюки женские кожаные палаццо</t>
+          <t>Костюм Деда Мороза Большие размеры</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1323</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Брюки женские кожаные палаццо</t>
+          <t>Костюм Деда Мороза Новый год</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1455</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Брюки женские кожаные палаццо</t>
+          <t>Костюм Деда Мороза Новый год</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1455</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Брюки женские кожаные экокожа</t>
+          <t>Костюм Деда Мороза атласный</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1714</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Брюки зауженного кроя</t>
+          <t>Костюм Деда Мороза взрослый</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1727</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Брюки зимние теплые с начесом на резинке</t>
+          <t>Костюм Деда Мороза новогодний 2025</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1356</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Брюки зимние теплые с начесом на флисе</t>
+          <t>Костюм Деда Мороза с париком</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1598</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Брюки зимние теплые с начесом на флисе</t>
+          <t>Костюм Снеговик со шляпой</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1598</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Брюки из экокожи прямые</t>
+          <t>Костюм вельветовый брюки прямые с рубашкой</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2300</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Брюки карго широкие с накладными карманами</t>
+          <t>Костюм вельветовый брюки прямые с рубашкой</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>433</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Брюки классические бананы</t>
+          <t>Костюм вельветовый брючный</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1238</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Брюки классические бананы</t>
+          <t>Костюм вельветовый брючный</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2063</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Брюки классические бананы</t>
+          <t>Костюм вельветовый брючный</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>649</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Брюки классические зауженные укороченные</t>
+          <t>Костюм вельветовый с рубашкой и брюками</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1884</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Брюки классические меха</t>
+          <t>Костюм вельветовый с рубашкой и брюками</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1221</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Брюки классические на резинке штаны больших размеров прямые</t>
+          <t>Костюм вкпо летняя форма</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2116</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Брюки классические офисные</t>
+          <t>Костюм горка зимний тактический</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2902</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо</t>
+          <t>Костюм горка тактический зимний</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1052</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо</t>
+          <t>Костюм горка тактический зимний</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1507</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо вельветовые</t>
+          <t>Костюм двойка брючный</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2546</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо кожаные глянцевые утепленные</t>
+          <t>Костюм двойка вельветовый брючный с рубашкой</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>801</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо кожаные матовые неутепленные</t>
+          <t>Костюм двойка утеплёный</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2414</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо кожаные матовые неутепленные</t>
+          <t>Костюм двойка флисовый брючный на замке</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2433</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Брюки классические палаццо широкие школьные с карманами</t>
+          <t>Костюм деда Мороза атласный взрослый</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1766</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Брюки классические прямые</t>
+          <t>Костюм деда Мороза атласный взрослый</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1792</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Брюки классические прямые</t>
+          <t>Костюм деда Мороза атласный взрослый</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3561</v>
+        <v>991</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Брюки классические прямые</t>
+          <t>Костюм домашний (нательное бельё) из флиса</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1896</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Брюки классические с высокой посадкой офисные на резинке</t>
+          <t>Костюм домашний вискоза на весну и лето</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1330</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Брюки классические синие</t>
+          <t>Костюм домашний пижама с шортами и футболка</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3260</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Брюки классические укороченные</t>
+          <t>Костюм домашний с брюками пижама</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Брюки классические шелковые с защипами</t>
+          <t>Костюм домашний с футболкой и шортами</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3815</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Брюки классические широкие палаццо в полоску</t>
+          <t>Костюм домашний с футболкой и шортами</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1319</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Брюки клетка домашние новогодние</t>
+          <t>Костюм домашний с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>604</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Брюки клеш</t>
+          <t>Костюм домашний с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2943</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Брюки клеш классические</t>
+          <t>Костюм домашний с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2554</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Брюки клеш классические палаццо с высокой посадкой</t>
+          <t>Костюм домашний футболка со штанами</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1603</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Брюки клеш классические палаццо с высокой посадкой</t>
+          <t>Костюм зимний Альтаир</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1523</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Брюки клеш классические с высокой посадкой</t>
+          <t>Костюм зимний Полюс</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2599</v>
+        <v>9909</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Брюки клеш кружевные вечерние на высокой посадке</t>
+          <t>Костюм зимний Тайга</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3736</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Брюки клеш леггинсы утепленные</t>
+          <t>Костюм зимний на молнии оверсайз</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2051</v>
+        <v>10838</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Брюки клеш от колена с высокой посадкой расклешенные</t>
+          <t>Костюм классический деловой двойка</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3961</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Брюки клеш от колена утепленные на флисе штаны классические</t>
+          <t>Костюм летний с брюками хлопок</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2299</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Брюки кожаные джоггеры</t>
+          <t>Костюм мужской домашний с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>599</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Брюки кожаные джоггеры</t>
+          <t>Костюм мужской домашний с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>599</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Брюки кожаные классические палаццо с начесом</t>
+          <t>Костюм мужской повседневный</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>886</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Брюки кожаные классические палаццо с начесом</t>
+          <t>Костюм мужской спортивный с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1110</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Брюки кожаные комбинированные экокожа с трикотажем</t>
+          <t>Костюм мужской спортивный с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>986</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Брюки кожаные палаццо</t>
+          <t>Костюм мужской спортивный с футболкой и шортами летний</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>599</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Брюки кожаные прямые экокожа</t>
+          <t>Костюм мужской теплый</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1595</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Брюки кожаные утепленные</t>
+          <t>Костюм мужской тройка Пиджак+брюки+жилет</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1084</v>
+        <v>6963</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Брюки кожаные утепленные с высокой посадкой</t>
+          <t>Костюм новогодний ДедМороз</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1212</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Брюки кожаные экокожа</t>
+          <t>Костюм осенний с брюками и рубашкой вельветовый</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1044</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Брюки леггинсы клеш утепленные</t>
+          <t>Костюм пижамный домашний с брюками хлопок</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1504</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Брюки оверсайз с начесом на флисе</t>
+          <t>Костюм повседневный офисный (Следственный комитет)</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1517</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Брюки осенние палаццо классические офисные</t>
+          <t>Костюм с брюками двойка</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1973</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Брюки офисные зауженные до щиколотки</t>
+          <t>Костюм с брюками спортивный однотонный хлопок</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1821</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Брюки палаццо</t>
+          <t>Костюм с брюками спортивный однотонный хлопок</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1705</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Брюки палаццо в полоску</t>
+          <t>Костюм с брюками спортивный однотонный хлопок</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2281</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Брюки палаццо для офиса</t>
+          <t>Костюм с шортами</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1556</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Брюки палаццо зимние теплые с начесом на резинке варенка</t>
+          <t>Костюм с шортами и футболкой летний</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2053</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Брюки палаццо классические</t>
+          <t>Костюм с шортами и футболкой спортивный</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3162</v>
+        <v>919</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Брюки палаццо классические в полоску</t>
+          <t>Костюм с шортами спортивный летний</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2864</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Брюки палаццо классические широкие</t>
+          <t>Костюм с шортами спортивный летний</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2260</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Брюки палаццо классические широкие</t>
+          <t>Костюм спортивный</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2163</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Брюки палаццо классические широкие</t>
+          <t>Костюм спортивный</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2216</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Брюки палаццо клеш трикотажные длинные</t>
+          <t>Костюм спортивный</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>942</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Брюки палаццо кожаные клеш утепленные</t>
+          <t>Костюм спортивный</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1140</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Брюки палаццо на резинке</t>
+          <t>Костюм спортивный</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1973</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Брюки палаццо на резинке</t>
+          <t>Костюм спортивный 3 в 1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1811</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Брюки палаццо праздничные гофре</t>
+          <t>Костюм спортивный Барселона</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1481</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Брюки палаццо с высокой посадкой на резинке</t>
+          <t>Костюм спортивный СССР на молнии зип</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1176</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Брюки палаццо с разрезами</t>
+          <t>Костюм спортивный базовый с начесом</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2062</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Брюки палаццо теплые</t>
+          <t>Костюм спортивный без начеса</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1973</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Брюки палаццо теплые</t>
+          <t>Костюм спортивный без начеса</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2558</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Брюки палаццо утепленные зима</t>
+          <t>Костюм спортивный большие размеры</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1670</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Брюки палаццо шелковые на резинке</t>
+          <t>Костюм спортивный для зимних видов спорта</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1858</v>
+        <v>12653</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Брюки палаццо широкие</t>
+          <t>Костюм спортивный мужской футер с начесом теплый</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2012</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Брюки палаццо широкие классические клеш</t>
+          <t>Костюм спортивный на молнии</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1935</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Брюки палаццо широкие классические офисные</t>
+          <t>Костюм спортивный на молнии с брюками и толстовкой</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4127</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Брюки палаццо широкие с высокой посадкой</t>
+          <t>Костюм спортивный на молнии с капюшоном</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2310</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Брюки прямые джерси</t>
+          <t>Костюм спортивный на молнии трикотажный с принтом камуфляж</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1523</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Брюки прямые из плащевки утепленные на флисе</t>
+          <t>Костюм спортивный оверсайз</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2129</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Брюки прямые из плащевки утепленные на флисе</t>
+          <t>Костюм спортивный оверсайз</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1848</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Брюки прямые спортивные стрейч трико фитнес</t>
+          <t>Костюм спортивный однотонный утепленный на молнии c начесом</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>774</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Брюки с начесом зимние спортивные джоггеры</t>
+          <t>Костюм спортивный с начесом</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2255</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Брюки с пайетками</t>
+          <t>Костюм спортивный с начесом толстовка и брюки</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1276</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Брюки с пайетками блестящие</t>
+          <t>Костюм спортивный с начесом толстовка и брюки</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1991</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Брюки с пайетками блестящие прямые</t>
+          <t>Костюм спортивный с шортами и футболкой</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1337</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Брюки со стрелками кожаные утепленные</t>
+          <t>Костюм спортивный теплый</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>649</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Брюки спортивные зимние утепленные на флисе из плащевки</t>
+          <t>Костюм спортивный теплый с капюшоном</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1927</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Брюки спортивные зимние утепленные на флисе из плащевки</t>
+          <t>Костюм спортивный теплый с начесом</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1927</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Брюки спортивные теплые</t>
+          <t>Костюм спортивный теплый с начесом и мехом на молнии NIKE</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1431</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Брюки спортивные теплые</t>
+          <t>Костюм спортивный теплый с начесом на флисе</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1703</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Брюки теплые бананы в клетку зауженные</t>
+          <t>Костюм спортивный теплый футер</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2640</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Брюки трикотажные классические на резинке офисные штаны</t>
+          <t>Костюм спортивный теплый футер</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1586</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Брюки трикотажные палаццо теплые</t>
+          <t>Костюм спортивный тонкий с худи и джоггерами</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1191</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Брюки утепленные женские с начесом</t>
+          <t>Костюм спортивный утепленный</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2129</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Брюки утепленные зимние</t>
+          <t>Костюм спортивный утепленный с начесом</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2005</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Брюки утепленные классические штаны на флисе прямые резинке</t>
+          <t>Костюм спортивный флисовый</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2401</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Брюки утепленные классические штаны на флисе прямые резинке</t>
+          <t>Костюм спортивный флисовый</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2495</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Брюки утепленные на резинке большие размеры</t>
+          <t>Костюм спортивный футболка и штаны трикотаж</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1896</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Брюки утепленные палаццо</t>
+          <t>Костюм спортивный футболка с брюками домашний</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2478</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Брюки утепленные палаццо</t>
+          <t>Костюм тактический горка летний</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2504</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Брюки утепленные прямые</t>
+          <t>Костюм тактический летний черный</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1683</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Брюки утепленные прямые без стрелок</t>
+          <t>Костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1481</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Брюки утепленные с мембраной Soft hell</t>
+          <t>Костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2495</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Брюки утепленные с начесом палаццо</t>
+          <t>Костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1733</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Брюки утепленные спортивные на флисе</t>
+          <t>Костюм тройка классический смокинг</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1727</v>
+        <v>11483</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Брюки утеплённые на подкладке из флиса</t>
+          <t>Костюм тройка черный</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1859</v>
+        <v>9915</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Брюки утеплённые на подкладке из флиса</t>
+          <t>Костюм флисовый теплый</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1859</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Брюки черные женские кожаные палаццо</t>
+          <t>Костюм флисовый теплый на молнии</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1455</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Брюки широкие блестящие с пайетками</t>
+          <t>Костюм флисовый теплый с капюшоном</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1789</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Брюки широкие с пайетками</t>
+          <t>Костюм футболка шорты летний</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2263</v>
+        <v>887</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Велосипедки короткие спортивные в рубчик</t>
+          <t>Костюм-двойка брючный теплый</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>594</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные для фитнеса с высокой посадкой</t>
+          <t>Летний мужской костюм с шортами из муслина</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1536</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные для фитнеса утягивающие</t>
+          <t>Муслиновый костюм летний с шортами</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2309</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные для фитнеса утягивающие пушап</t>
+          <t>Муслиновый костюм летний с шортами</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3564</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные на высокой талии с пуш-ап эффектом</t>
+          <t>Набор новогодних костюмов Дед Мороз и Снегурочка</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>720</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные с высокой талией утягивающие</t>
+          <t>Набор новогодних костюмов Дед Мороз и Снегурочка</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>614</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные укороченные для зала и йоги</t>
+          <t>Накидка японская хаори оверсайз</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2194</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные утягивающие</t>
+          <t>Новогодний костюм взрослый дед мороз</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>359</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Велосипедки спортивные хлопок</t>
+          <t>Русская народная рубаха косоворотка мужская Гжель</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>473</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Джеггинсы из экокожи утепленные на флисе</t>
+          <t>Свитшот мужской на молнии Old Money</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1303</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Джинсовые джоггеры карго с карманами по бокам на меху</t>
+          <t>Спортивный Костюм</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1802</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Джоггеры женские со стразами штаны утепленные на меху</t>
+          <t>Спортивный Костюм</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1185</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Женские брюки в клетку на резинке</t>
+          <t>Спортивный Костюм c капюшоном</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>831</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Женские брюки с пайетками праздничные</t>
+          <t>Спортивный Костюм теплый на флисе ветровлагозащитный</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2878</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Зимние брюки джоггеры утепленные оверсайз с начесом</t>
+          <t>Спортивный брючный костюм-двойка</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2089</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Зимние брюки джоггеры утепленные с начесом</t>
+          <t>Спортивный брючный костюм-двойка</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1848</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Зимние брюки джоггеры утепленные с начесом</t>
+          <t>Спортивный костюм</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1848</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Зимние брюки джоггеры утепленные с начесом</t>
+          <t>Спортивный костюм</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1607</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Зимние брюки джоггеры утепленные с начесом</t>
+          <t>Спортивный костюм</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1928</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Классические брюки бананы</t>
+          <t>Спортивный костюм</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1846</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Классические брюки больших размеров</t>
+          <t>Спортивный костюм</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2400</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Классические брюки больших размеров</t>
+          <t>Спортивный костюм Adida  ретро в стиле 90-х слово пацана</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2322</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Классические брюки палаццо утепленные осенние</t>
+          <t>Спортивный костюм Джентельмены</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2200</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Классические брюки прямые с высокой посадкой</t>
+          <t>Спортивный костюм Мужской костюм летний</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1530</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Классические льняные прямые брюки</t>
+          <t>Спортивный костюм Мужской костюм летний</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>764</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Кожаные Леггинсы Лосины</t>
+          <t>Спортивный костюм Мужской костюм летний</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>497</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Кожаные Леггинсы Лосины утепленные</t>
+          <t>Спортивный костюм Россия с вышивкой патриотический</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>538</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Кожаные брюки классические палаццо</t>
+          <t>Спортивный костюм без начеса</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1714</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Кожаные брюки утепленные прямые широкие</t>
+          <t>Спортивный костюм без начеса на молнии</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2243</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Кожаные леггинсы с микрофлисом</t>
+          <t>Спортивный костюм больших размеров</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>819</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Кожаные леггинсы с микрофлисом и карманами</t>
+          <t>Спортивный костюм больших размеров из хлопка</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1030</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Кожаные леггинсы с начесом</t>
+          <t>Спортивный костюм больших размеров утепленный демисезон</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1236</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Кожаные лосины утепленные с микрофлисом</t>
+          <t>Спортивный костюм вельветовый</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>830</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Красные брюки палаццо классические</t>
+          <t>Спортивный костюм для тренажерного зала футболка и шорты</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3404</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Кюлоты</t>
+          <t>Спортивный костюм зимний теплый зипка толстовка с мехом</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2319</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Леггинсы</t>
+          <t>Спортивный костюм мужской зимний на флисе с начесом</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1594</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Леггинсы Лосины</t>
+          <t>Спортивный костюм мужской на молнии без начеса</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>348</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Леггинсы Лосины в рубчик</t>
+          <t>Спортивный костюм мужской с начесом флис</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>368</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Леггинсы блестящие в стиле 90-х</t>
+          <t>Спортивный костюм мужской флисовый</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>611</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик бесшовные</t>
+          <t>Спортивный костюм на молнии</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>655</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик лосины спортивные</t>
+          <t>Спортивный костюм на молнии</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1894</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик лосины спортивные утягивающие</t>
+          <t>Спортивный костюм на молнии</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>657</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик с легким начесом</t>
+          <t>Спортивный костюм на молнии Y2K с капюшоном</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>640</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик спортивные лосины для фитнеса</t>
+          <t>Спортивный костюм на молнии Y2K с капюшоном</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>855</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик утепленные Лосины с начесом</t>
+          <t>Спортивный костюм на молнии y2k с полосками</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>804</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Леггинсы в рубчик, лосины спортивные</t>
+          <t>Спортивный костюм на молнии домашний на флисе СССР</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1127</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Леггинсы велюровые повседневные гамаши</t>
+          <t>Спортивный костюм на молнии летний</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1023</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Леггинсы велюровые повседневные завышенная талия</t>
+          <t>Спортивный костюм на молнии с капюшоном</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1170</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Леггинсы голубые c высокой посадкой, V вырезом сзади</t>
+          <t>Спортивный костюм на молнии с начесом</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1461</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Леггинсы женские из хлопка</t>
+          <t>Спортивный костюм на молнии с начесом и капюшоном</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>734</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Леггинсы клеш в рубчик</t>
+          <t>Спортивный костюм на молнии теплый с начесом</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>985</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Леггинсы клеш от колена с рисунком гусиная лапка плотные</t>
+          <t>Спортивный костюм на молнии теплый с начесом</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1170</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Леггинсы клеш от колена утепленный змеиная кожа экокожа</t>
+          <t>Спортивный костюм на флисе</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1170</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Леггинсы кожаные утепленные на флисе</t>
+          <t>Спортивный костюм на флисе</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>982</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Леггинсы кожаные утепленные на флисе</t>
+          <t>Спортивный костюм на флисе теплый</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>889</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Леггинсы с высокой посадкой в рубчик</t>
+          <t>Спортивный костюм оверсайз без начеса осенний</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>784</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Леггинсы со штрипками утепленные</t>
+          <t>Спортивный костюм оверсайз с начёсом</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>937</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные</t>
+          <t>Спортивный костюм оверсайз худи и джоггеры без начеса</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>824</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные</t>
+          <t>Спортивный костюм с брюками</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1157</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные</t>
+          <t>Спортивный костюм с брюками</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1547</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные для фитнеса и тренировок</t>
+          <t>Спортивный костюм с капюшоном на флисе утепленный</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2845</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные для фитнеса лосины пушап</t>
+          <t>Спортивный костюм с мехом</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1274</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные для фитнеса с высокой посадкой</t>
+          <t>Спортивный костюм с мехом и флисе</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2923</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные лосины для фитнеса</t>
+          <t>Спортивный костюм с начесом</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1109</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные лосины с цветным лампасом</t>
+          <t>Спортивный костюм с начесом</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>668</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные с высокой посадкой</t>
+          <t>Спортивный костюм с прямыми брюками и футболкой оверсайз</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>487</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные с пушап лосины утягивающие тайтсы</t>
+          <t>Спортивный костюм теплый</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1436</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные укороченные для фитнеса и бега</t>
+          <t>Спортивный костюм теплый c начесом</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1123</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Леггинсы спортивные яркие для йоги и фитнеса</t>
+          <t>Спортивный костюм теплый c начесом</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2926</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Леггинсы тайтсы спортивные</t>
+          <t>Спортивный костюм теплый c начесом оверсайз</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3223</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Леггинсы тайтсы спортивные</t>
+          <t>Спортивный костюм теплый зимний с начесом</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>999</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Леггинсы тайтсы спортивные для фитнеса и йоги</t>
+          <t>Спортивный костюм теплый на молнии</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2891</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Леггинсы теплые в рубчик</t>
+          <t>Спортивный костюм теплый на молнии</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>428</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Леггинсы теплые женские больших размеров на меху</t>
+          <t>Спортивный костюм теплый на молнии</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>573</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные в рубчик</t>
+          <t>Спортивный костюм теплый на молнии с капюшоном</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>824</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные в рубчик</t>
+          <t>Спортивный костюм теплый на молнии с начесом</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>813</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные в рубчик бежевые на флисе</t>
+          <t>Спортивный костюм теплый на молнии с начесом</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1386</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные в рубчик с легким начесом</t>
+          <t>Спортивный костюм теплый на молнии с начесом на</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>829</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные зимние с мехом</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>735</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные лосины с мехом без швов</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>549</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные на меху, лосины зимние с начесом</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>731</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные на флисе</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>596</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные на флисе в рубчик</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>377</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные на флисе утягивающие</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1089</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные с флисом лосины зимние с начесом</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1275</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Леггинсы утепленные утягивающие из шерсти и кашемира</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1755</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Леггинсы утягивающие в рубчик</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>666</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Леггинсы утягивающие с высокой талией широким поясом пушап</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1225</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Леггинсы, Лосины</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>379</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Легинсы спортивные со штрипками</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>898</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Легкие брюки с подворотом</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>858</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Лосины базовые хлопковые</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>690</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Лосины в рубчик</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>929</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Лосины в рубчик легинсы утягивающие спортивные</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1449</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Лосины в рубчик утягивающие бесшовные леггинсы</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>849</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Лосины для беременных в рубчик леггинсы</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>772</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Лосины для беременных в рубчик леггинсы</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>772</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Лосины для беременных леггинсы бесшовные Кэндис</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>693</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Лосины женские на флисе легинсы в рубчик с утяжкой</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1346</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Лосины женские спортивные леггинсы в рубчик</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1052</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Лосины зимние утепленные леггинсы с высокой посадкой</t>
+          <t>Спортивный костюм теплый с начесом</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>610</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Лосины кожаные большие размеры</t>
+          <t>Спортивный костюм теплый с начесом Леон</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>787</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Лосины леггинсы спортивные</t>
+          <t>Спортивный костюм теплый с начесом на молнии</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1048</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Лосины леггинсы тайтсы спортивные с высокой посадкой</t>
+          <t>Спортивный костюм теплый с начесом на молнии</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>792</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Лосины с начесом Леггинсы тёплые черные с мехом</t>
+          <t>Спортивный костюм теплый с начесом на молнии</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1152</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Лосины с начесом Леггинсы тёплые черные с мехом</t>
+          <t>Спортивный костюм теплый с начесом на флисе</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1236</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Лосины спортивные</t>
+          <t>Спортивный костюм теплый с начесом на флисе с худи</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>974</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Лосины спортивные</t>
+          <t>Спортивный костюм теплый с начесом флисовый</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1703</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие</t>
+          <t>Спортивный костюм теплый с флисом</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>538</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие</t>
+          <t>Спортивный костюм теплый с флисом</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2943</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие</t>
+          <t>Спортивный костюм теплый флис</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2792</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Спортивный костюм теплый флисовый</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4611</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Спортивный костюм теплый флисовый</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>4371</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Спортивный костюм тёплый с начёсом</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4506</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Спортивный костюм флисовый</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>4345</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Спортивный костюм флисовый</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>5583</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие яркие</t>
+          <t>Спортивный костюм флисовый</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2026</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса леггинсы утягивающие яркие</t>
+          <t>Спортивный костюм флисовый на молнии</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3255</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Лосины спортивные для фитнеса с высокой посадкой с сеткой</t>
+          <t>Спортивный костюм флисовый на пуговицах</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2902</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Лосины спортивные леггинсы</t>
+          <t>Спортивный костюм флисовый плюшевый</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>348</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Лосины спортивные леггинсы для фитнеса с высокой посадкой</t>
+          <t>Спортивный костюм флисовый плюшевый</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1019</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Лосины спортивные летние для фитнеса</t>
+          <t>Спортивный костюм флисовый плюшевый</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>555</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Лосины спортивные пушап леггинсы для фитнеса</t>
+          <t>Спортивный костюм флисовый с рубашкой плюшевый</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1354</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Лосины спортивные с высокой талией для фитнеса леггинсы</t>
+          <t>Спортивный костюм флисовый с рубашкой плюшевый</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4159</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Лосины спортивные удлиненные с принтом змея</t>
+          <t>Спортивный костюм флисовый теплый на молнии</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1811</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Лосины теплые в рубчик</t>
+          <t>Спортивный костюм флисовый теплый на молнии</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1084</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Лосины утепленные леггинсы</t>
+          <t>Спортивный костюм футболка и шорты</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>905</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Лосины утепленные леггинсы с высокой посадкой</t>
+          <t>Спортивный костюм футболка и шорты</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>696</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Лосины утепленные леггинсы с высокой посадкой и мехом</t>
+          <t>Спортивный костюм худи и джоггеры теплый с начесом</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>889</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Лосины утепленные леггинсы с высокой посадкой и мехом</t>
+          <t>Спортивный костюм худи и джоггеры теплый с начесом</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>654</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Лосины утепленные леггинсы с высокой посадкой и мехом</t>
+          <t>Спортивный костюм худи и джоггеры теплый с начесом</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>682</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Модные атласные брюки карго с завязками по низу</t>
+          <t>Спортивный костюм худи и джоггеры теплый с начесом</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>542</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Повседневные брюки оверсайз с лампасами и бантиками</t>
+          <t>Спортивный костюм худи и джоггеры теплый с начесом</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1574</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Расклешенные вельветовые брюки Witch club by In ta amka</t>
+          <t>Спортивный мужской теплый костюм с начесом</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1574</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Спортивные брюки для беременных осень</t>
+          <t>Спортивный мужской теплый костюм с начесом</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1460</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Спортивные лосины в рубчик утягивающие леггинсы для фитнеса</t>
+          <t>Спортивный утепленный бархатный костюм</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1303</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Спортивные штаны свободные джоггеры</t>
+          <t>Спортивный утепленный костюм</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1944</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Тайтсы</t>
+          <t>Теплый костюм флисовый зимний</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2920</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные в рубчик для фитнеса</t>
+          <t>Теплый спортивный костюм на молнии</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>793</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные для фитнеса леггинсы утягивающие</t>
+          <t>Теплый спортивный костюм на флисе</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2816</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Теплый спортивный костюм на флисе</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>4506</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Теплый спортивный костюм на флисе</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>4255</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные для фитнеса леггинсы утягивающие пушап</t>
+          <t>Теплый спортивный костюм на флисе</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>4724</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные для фитнеса пушап</t>
+          <t>Теплый спортивный костюм на флисе с жилеткой</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>4162</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Тайтсы спортивные для фитнеса с высокой посадкой</t>
+          <t>Теплый спортивный костюм с начесом</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3065</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Теплые леггинсы для беременных клеш</t>
+          <t>Теплый флисовый спортивный костюм с начесом</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1705</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Теплые прямые брюки с начесом</t>
+          <t>Утепленный мужской спортивный костюм Найк</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1045</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Термо Леггинсы утепленные с напяточником и штрипками</t>
+          <t>Флисовый костюм</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Термо лосины с мехом</t>
+          <t>Флисовый костюм мужской тактический рыболовный</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>374</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Термолеггинсы теплые лосины спортивные</t>
+          <t>Флисовый костюм с начесом</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>673</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Утепленные зимние лосины леггинсы</t>
+          <t>Флисовый костюм темно-синий</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2413</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Утепленные леггинсы с кашемиром с высокой посадкой</t>
+          <t>Флисовый спортивный костюм</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>955</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Утепленные лосины в рубчик леггинсы тайтсы</t>
+          <t>Форма боксерская двусторонняя Бокс</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1222</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Шерстяные брюки на резинке</t>
+          <t>Форма тактическая синяя</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2221</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Широкие брюки вечерние с пайетками нарядные</t>
+          <t>Футбольная форма взрослая без надписей</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1785</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Широкие брюки с боковыми карманами</t>
+          <t>Футбольная форма для тренировок взрослая</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>746</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Широкие спортивные штаны карго оверсайз</t>
+          <t>Хаори мужское с шортами Костюм в японском стиле</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1022</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Шорты спортивные короткие утягивающие</t>
+          <t>Худи с капюшоном оверсайз Lo  Angele</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>725</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Штаны карго y2k широкие парашюты оверсайз</t>
+          <t>Шорты для спорта и дома</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1447</v>
+        <v>359</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Штаны оверсайз на завязках с запахом большие размеры</t>
+          <t>домашний костюм с шортами</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2229</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Штаны пижамные шелковые домашние</t>
+          <t>костюм двойка джинсовый спортивный</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1573</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Штаны широкие оверсайз со стрелкой</t>
+          <t>костюм домашний шорты и футболка</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1393</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>брюки</t>
+          <t>мужской полузамок с брюками</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1584</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>брюки кожаные комбинированные экокожа</t>
+          <t>пижама - Костюм с шортами летний</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1548</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>брюки палаццо черные классические</t>
+          <t>спортивный костюм с начесом</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1245</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>брюки широкие джоггеры спортивные оверсайз</t>
+          <t>спортивный костюм теплый на флисе с капюшоном</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2322</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>лосины леггинсы спортивные летние тайтсы</t>
+          <t>спортивный костюмы тройка с жилеткой</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>404</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>штаны hello kitty y2k у2к подарок на 8 марта</t>
+          <t>теплый спортивный костюм Nocta</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>штаны hello kitty y2k у2к подарок на 8 марта</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>1073</v>
+        <v>2743</v>
       </c>
     </row>
   </sheetData>
